--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value351.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value351.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.194275589635069</v>
+        <v>0.8683426976203918</v>
       </c>
       <c r="B1">
-        <v>2.82671455580607</v>
+        <v>2.622020483016968</v>
       </c>
       <c r="C1">
-        <v>3.92015550388007</v>
+        <v>4.741023063659668</v>
       </c>
       <c r="D1">
-        <v>1.155851641879471</v>
+        <v>2.221381902694702</v>
       </c>
       <c r="E1">
-        <v>0.699415864330186</v>
+        <v>1.311357736587524</v>
       </c>
     </row>
   </sheetData>
